--- a/artfynd/A 17144-2023.xlsx
+++ b/artfynd/A 17144-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2326,6 +2326,238 @@
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112079417</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Köpingsåsen, Srm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>563452.2161451608</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6576050.619629455</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Öja</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Ralf Lundmark</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Ralf Lundmark</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112079439</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Köpingsåsen, Srm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>563407.8844683191</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6576468.999423527</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Öja</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Ralf Lundmark</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Ralf Lundmark</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Lst D inventering sandbarrskogar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 17144-2023.xlsx
+++ b/artfynd/A 17144-2023.xlsx
@@ -2328,10 +2328,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112079417</v>
+        <v>112079439</v>
       </c>
       <c r="B15" t="n">
-        <v>8377</v>
+        <v>90689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2340,25 +2340,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>5966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>563452.2161451608</v>
+        <v>563407.8844683191</v>
       </c>
       <c r="R15" t="n">
-        <v>6576050.619629455</v>
+        <v>6576468.999423527</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112079439</v>
+        <v>112079417</v>
       </c>
       <c r="B16" t="n">
-        <v>90689</v>
+        <v>8377</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2456,25 +2456,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>563407.8844683191</v>
+        <v>563452.2161451608</v>
       </c>
       <c r="R16" t="n">
-        <v>6576468.999423527</v>
+        <v>6576050.619629455</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>

--- a/artfynd/A 17144-2023.xlsx
+++ b/artfynd/A 17144-2023.xlsx
@@ -2328,10 +2328,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112079439</v>
+        <v>112079417</v>
       </c>
       <c r="B15" t="n">
-        <v>90689</v>
+        <v>8377</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2340,25 +2340,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>563407.8844683191</v>
+        <v>563452.2161451608</v>
       </c>
       <c r="R15" t="n">
-        <v>6576468.999423527</v>
+        <v>6576050.619629455</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2444,10 +2444,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112079417</v>
+        <v>112079439</v>
       </c>
       <c r="B16" t="n">
-        <v>8377</v>
+        <v>90689</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2456,25 +2456,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>5966</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>563452.2161451608</v>
+        <v>563407.8844683191</v>
       </c>
       <c r="R16" t="n">
-        <v>6576050.619629455</v>
+        <v>6576468.999423527</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>

--- a/artfynd/A 17144-2023.xlsx
+++ b/artfynd/A 17144-2023.xlsx
@@ -2328,10 +2328,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112079417</v>
+        <v>112079439</v>
       </c>
       <c r="B15" t="n">
-        <v>8377</v>
+        <v>90689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2340,25 +2340,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>5966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>563452.2161451608</v>
+        <v>563408</v>
       </c>
       <c r="R15" t="n">
-        <v>6576050.619629455</v>
+        <v>6576469</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2401,19 +2401,9 @@
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2022-10-31</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2444,10 +2434,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112079439</v>
+        <v>112079417</v>
       </c>
       <c r="B16" t="n">
-        <v>90689</v>
+        <v>8377</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2456,25 +2446,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2484,10 +2474,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>563407.8844683191</v>
+        <v>563452</v>
       </c>
       <c r="R16" t="n">
-        <v>6576468.999423527</v>
+        <v>6576051</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2517,19 +2507,9 @@
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2022-10-31</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 17144-2023.xlsx
+++ b/artfynd/A 17144-2023.xlsx
@@ -2331,7 +2331,7 @@
         <v>112079439</v>
       </c>
       <c r="B15" t="n">
-        <v>90689</v>
+        <v>90823</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>

--- a/artfynd/A 17144-2023.xlsx
+++ b/artfynd/A 17144-2023.xlsx
@@ -2328,10 +2328,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112079439</v>
+        <v>112079417</v>
       </c>
       <c r="B15" t="n">
-        <v>90823</v>
+        <v>8377</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2340,25 +2340,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>106545</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>563408</v>
+        <v>563452</v>
       </c>
       <c r="R15" t="n">
-        <v>6576469</v>
+        <v>6576051</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112079417</v>
+        <v>112079439</v>
       </c>
       <c r="B16" t="n">
-        <v>8377</v>
+        <v>90837</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2446,25 +2446,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>5966</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>563452</v>
+        <v>563408</v>
       </c>
       <c r="R16" t="n">
-        <v>6576051</v>
+        <v>6576469</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>

--- a/artfynd/A 17144-2023.xlsx
+++ b/artfynd/A 17144-2023.xlsx
@@ -2328,10 +2328,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112079417</v>
+        <v>112079439</v>
       </c>
       <c r="B15" t="n">
-        <v>8377</v>
+        <v>90837</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2340,25 +2340,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>106545</v>
+        <v>5966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>563452</v>
+        <v>563408</v>
       </c>
       <c r="R15" t="n">
-        <v>6576051</v>
+        <v>6576469</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112079439</v>
+        <v>112079417</v>
       </c>
       <c r="B16" t="n">
-        <v>90837</v>
+        <v>8377</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2446,25 +2446,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>563408</v>
+        <v>563452</v>
       </c>
       <c r="R16" t="n">
-        <v>6576469</v>
+        <v>6576051</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
